--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value208.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value208.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.454889644097533</v>
+        <v>1.527940154075623</v>
       </c>
       <c r="B1">
-        <v>2.068150758184715</v>
+        <v>3.667423009872437</v>
       </c>
       <c r="C1">
-        <v>2.092234359037394</v>
+        <v>5.82089900970459</v>
       </c>
       <c r="D1">
-        <v>2.110519124972058</v>
+        <v>1.422928214073181</v>
       </c>
       <c r="E1">
-        <v>0.606777133860821</v>
+        <v>0.8312093019485474</v>
       </c>
     </row>
   </sheetData>
